--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/66.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/66.xlsx
@@ -479,13 +479,13 @@
         <v>-7.2738813764897</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.172417715541009</v>
+        <v>-9.128898900895111</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.757461078101032</v>
+        <v>-1.864791776797503</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.910843413712285</v>
+        <v>-8.044594379543359</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-7.135142748754771</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.814071477814004</v>
+        <v>-9.761977204806776</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.758613200751104</v>
+        <v>-1.856307964556064</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.731452680174954</v>
+        <v>-7.851155605056856</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-6.931910989820079</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.37776057666452</v>
+        <v>-10.34090574416506</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.761467322770601</v>
+        <v>-1.865786791813474</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.534767014583704</v>
+        <v>-7.661186290823411</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-6.691757304128887</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.01921795439489</v>
+        <v>-10.98022907653223</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.757749108763551</v>
+        <v>-1.848020536857252</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.101739098093613</v>
+        <v>-7.225526821462133</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-6.422141662087322</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.65213915067245</v>
+        <v>-11.63015717420119</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.811309719689052</v>
+        <v>-1.899996979138904</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.848756530282941</v>
+        <v>-6.983581064947036</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.137404248376916</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.44517921070432</v>
+        <v>-12.42681070981738</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.603875273464744</v>
+        <v>-1.693060040422582</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.467508671531878</v>
+        <v>-6.608931726828203</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.850140404906266</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.08839095701548</v>
+        <v>-13.05837030659941</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.507568293761007</v>
+        <v>-1.595181984377838</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.822359264400142</v>
+        <v>-5.980920144116286</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-5.577712378982866</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.70575849751708</v>
+        <v>-13.69355647126859</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.400054302824753</v>
+        <v>-1.501951695841907</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.405683634159368</v>
+        <v>-5.550693980434326</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.333561191952994</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.34644342937978</v>
+        <v>-14.34450576855921</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.320728039906734</v>
+        <v>-1.41164099083968</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.018727531369313</v>
+        <v>-5.160464801933839</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.12566468075484</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.1897317477182</v>
+        <v>-15.19482465352363</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.196822485812639</v>
+        <v>-1.28079651623947</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.455156263244373</v>
+        <v>-4.597116102957208</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.961258673458838</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.96280604591644</v>
+        <v>-15.96407599929209</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9613181422956704</v>
+        <v>-1.051838324143364</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.919851276954719</v>
+        <v>-4.033505557923743</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.845372992252438</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.72942583881371</v>
+        <v>-16.73645640543972</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8687293765989836</v>
+        <v>-0.9672489554829723</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.442885592127796</v>
+        <v>-3.545778000160921</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.787854792304588</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.45092955611839</v>
+        <v>-17.45945264526836</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6912763038822285</v>
+        <v>-0.7944960194863968</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.877638509239115</v>
+        <v>-2.969952336576125</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.789437146183862</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.22594151513721</v>
+        <v>-18.24819842996815</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5037814348858695</v>
+        <v>-0.6108371952226636</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.595224444640242</v>
+        <v>-2.676789491344195</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.842345984854697</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.0953882545534</v>
+        <v>-19.11475177045631</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3390933574397972</v>
+        <v>-0.4470393943698287</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.037060297588935</v>
+        <v>-2.125839203158679</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.941847279406226</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.91990221061678</v>
+        <v>-19.93150199093455</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09379597139721763</v>
+        <v>-0.1932581960858106</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.762187399426896</v>
+        <v>-1.850992489602324</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.081544059889686</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.67028754799031</v>
+        <v>-20.70557130414876</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02286953922540336</v>
+        <v>-0.06534639732214689</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.324341515491051</v>
+        <v>-1.418828665099788</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.255994594687729</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.40167595394049</v>
+        <v>-21.44506384555797</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2920341933484496</v>
+        <v>0.2026006726366188</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.9456728403998077</v>
+        <v>-1.031767823886998</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.455063224237392</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.03347121217367</v>
+        <v>-22.0721982439795</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4415090148924361</v>
+        <v>0.3449140045261812</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.7138212493756808</v>
+        <v>-0.7794922404297787</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-5.669621239679534</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.65112678333778</v>
+        <v>-22.69569298221101</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6291478992200541</v>
+        <v>0.5359699798954897</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.382743095114112</v>
+        <v>-0.46790852509954</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-5.894896651326053</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.10680438374406</v>
+        <v>-23.15474839675046</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8017830044910541</v>
+        <v>0.7173376511619209</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.2637078776771385</v>
+        <v>-0.3524475063383579</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.1309212878309</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.54810663563012</v>
+        <v>-23.599402278164</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8869877113850073</v>
+        <v>0.8160143376800103</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1291713736755615</v>
+        <v>-0.2310949512983989</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-6.376355999373885</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.02972008796585</v>
+        <v>-24.06266032191563</v>
       </c>
       <c r="F24" t="n">
-        <v>1.034105918417483</v>
+        <v>0.9624255603590329</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1494644430802369</v>
+        <v>-0.2224016622114928</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-6.624003430049085</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.27588156599598</v>
+        <v>-24.31552505900073</v>
       </c>
       <c r="F25" t="n">
-        <v>1.087574883223092</v>
+        <v>1.031461273243454</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03240073569417994</v>
+        <v>-0.0596250609803126</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-6.872333405159898</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.54847640346356</v>
+        <v>-24.60168352221234</v>
       </c>
       <c r="F26" t="n">
-        <v>1.224140694165137</v>
+        <v>1.168275837939492</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.06852782691268632</v>
+        <v>-0.1665629905915311</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-7.11839946390767</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.59560869369378</v>
+        <v>-24.63904895452263</v>
       </c>
       <c r="F27" t="n">
-        <v>1.191959813780174</v>
+        <v>1.134235850551004</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.2684080143973182</v>
+        <v>-0.3706458072883571</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-7.361697203456869</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.68162512336392</v>
+        <v>-24.72769693706395</v>
       </c>
       <c r="F28" t="n">
-        <v>1.121549409097372</v>
+        <v>1.056703233122302</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.6204993147198573</v>
+        <v>-0.7240725225007523</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-7.597379109281726</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.49759971462062</v>
+        <v>-24.54314783620698</v>
       </c>
       <c r="F29" t="n">
-        <v>1.130321252001328</v>
+        <v>1.067897152051978</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.6627088990815821</v>
+        <v>-0.7601810937382327</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-7.817545115412492</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.23541325791221</v>
+        <v>-24.28690528498872</v>
       </c>
       <c r="F30" t="n">
-        <v>1.017347770780074</v>
+        <v>0.9512578260350406</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9807471197127918</v>
+        <v>-1.075234269321529</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-8.019647423901356</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.01738713868895</v>
+        <v>-24.06399573680549</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9468588122802206</v>
+        <v>0.8807034060209789</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.185248890100553</v>
+        <v>-1.26615932166242</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-8.202267446609893</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.66944609836724</v>
+        <v>-23.71035954474763</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9255707278595741</v>
+        <v>0.8635132123897925</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.432366106238133</v>
+        <v>-1.520176181397589</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-8.363209367709905</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.33842031331703</v>
+        <v>-23.36525953414257</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8866734961168059</v>
+        <v>0.8187113520654059</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.707042619857545</v>
+        <v>-1.799199339560455</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-8.494845747566698</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.89550770818144</v>
+        <v>-22.93922290736996</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8283472869569163</v>
+        <v>0.7643782952722427</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.93652450406732</v>
+        <v>-2.016256628373432</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.59356503009729</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.52743070608915</v>
+        <v>-22.559951986348</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7439281182334666</v>
+        <v>0.6830489100194403</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.198200360964899</v>
+        <v>-2.24880211144817</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-8.655964268210322</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.96088748521914</v>
+        <v>-21.99848857898058</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7906283624699034</v>
+        <v>0.7248657252959134</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.484110070422513</v>
+        <v>-2.52201228714931</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-8.68533660870207</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.51709769579315</v>
+        <v>-21.54926548387527</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8065355104226006</v>
+        <v>0.740275365740625</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.668187848377181</v>
+        <v>-2.709585709962719</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-8.680908700682338</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.02937013803033</v>
+        <v>-21.06724617015144</v>
       </c>
       <c r="F38" t="n">
-        <v>0.903065059274647</v>
+        <v>0.8362681301761605</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.80121873755196</v>
+        <v>-2.844135306267138</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-8.638886246942626</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.5464081785019</v>
+        <v>-20.58034342746765</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9211455294990706</v>
+        <v>0.8457207728278867</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.849922104123181</v>
+        <v>-2.883621691637784</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-8.563049460466939</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.89179303641559</v>
+        <v>-19.93524638954728</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9436250134783143</v>
+        <v>0.8660923960496125</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.963969154177457</v>
+        <v>-2.989355129387564</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.459062176896882</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.35684154230267</v>
+        <v>-19.40541398584547</v>
       </c>
       <c r="F41" t="n">
-        <v>1.015645771410649</v>
+        <v>0.9344865860947895</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.116389743860831</v>
+        <v>-3.136093659637629</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.33505706472214</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.59404470183518</v>
+        <v>-18.64117699206539</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9942267639615855</v>
+        <v>0.9152409009174521</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.330331064597477</v>
+        <v>-3.353059302330714</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.194156316564971</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.08013253838891</v>
+        <v>-18.13873368590847</v>
       </c>
       <c r="F43" t="n">
-        <v>1.093270034959243</v>
+        <v>1.001833391912628</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.371925310725641</v>
+        <v>-3.394195317859417</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.039962230734195</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.51429630187235</v>
+        <v>-17.56311749916915</v>
       </c>
       <c r="F44" t="n">
-        <v>1.057645878926907</v>
+        <v>0.9728732180267303</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.526218099715383</v>
+        <v>-3.553567920351748</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-7.875826008202814</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.87683207650871</v>
+        <v>-16.93357411702475</v>
       </c>
       <c r="F45" t="n">
-        <v>1.069114736216259</v>
+        <v>0.9791575233907588</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.697255944039692</v>
+        <v>-3.717234798176166</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-7.71090148805365</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.40219682158761</v>
+        <v>-16.45320443345897</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9110120870995747</v>
+        <v>0.8337413157277074</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.85296270173634</v>
+        <v>-3.875402908807059</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.548511943054757</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.79772519938512</v>
+        <v>-15.84420287447325</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9839885831393558</v>
+        <v>0.9023580749211937</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.84188661353224</v>
+        <v>-3.873111755809757</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.385854938081881</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.17171673900799</v>
+        <v>-15.23784596066155</v>
       </c>
       <c r="F48" t="n">
-        <v>0.959073930831551</v>
+        <v>0.8685275643781736</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.993456203530902</v>
+        <v>-4.03097874347529</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.223209264253168</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.65821043694981</v>
+        <v>-14.70631155759031</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8870269882935325</v>
+        <v>0.8024899888445073</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.093533766453056</v>
+        <v>-4.124117385891329</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.059825923728996</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.13599775350188</v>
+        <v>-14.17537940044979</v>
       </c>
       <c r="F50" t="n">
-        <v>0.883374235800691</v>
+        <v>0.800735620263716</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.18229957971996</v>
+        <v>-4.227612039855173</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.8986895164321</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.65248591725409</v>
+        <v>-13.67315866344118</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9900241347493914</v>
+        <v>0.9019260289274168</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.283411434566609</v>
+        <v>-4.323316773628191</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.736719676264618</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.03404480791948</v>
+        <v>-13.06519139637995</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8868306037509066</v>
+        <v>0.8091146940824206</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.393478424557001</v>
+        <v>-4.437324546773941</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.569292127225355</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.6218860221591</v>
+        <v>-12.64244093762061</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8984565686743593</v>
+        <v>0.8184364137057296</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.588147875510626</v>
+        <v>-4.644340039307314</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.392795260326169</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.00687509616902</v>
+        <v>-12.03935709951934</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8701641022333894</v>
+        <v>0.7888347169805869</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.756816013020583</v>
+        <v>-4.79881612053684</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.208371164422404</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.62029867016137</v>
+        <v>-11.63771143294087</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8263572569249739</v>
+        <v>0.7405633964031429</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.975339639751833</v>
+        <v>-5.021097238183665</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.015649659169257</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.2394566727984</v>
+        <v>-11.24343673286229</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7530534533141496</v>
+        <v>0.6700875302061315</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.184868854430817</v>
+        <v>-5.238743680624519</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.81151630216941</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.68596647786159</v>
+        <v>-10.69345527508706</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7318701073162368</v>
+        <v>0.6519939676788661</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.263082271607288</v>
+        <v>-5.31566095981966</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.595812396197852</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.44485862872837</v>
+        <v>-10.43983118443714</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6539447208022833</v>
+        <v>0.5755741959917111</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.412007216431922</v>
+        <v>-5.46380036647379</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.368324068169975</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.936563063201191</v>
+        <v>-9.925486974997092</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6808363108391886</v>
+        <v>0.6045736467861343</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.630190443289287</v>
+        <v>-5.680098301721947</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.135718621566542</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.794433023551415</v>
+        <v>-9.760249020831667</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6687259307105921</v>
+        <v>0.6017849862808466</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.688752313900328</v>
+        <v>-5.725528592582736</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.899961501721739</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.414088533696431</v>
+        <v>-9.379367746560172</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7069292704027487</v>
+        <v>0.6379852036382192</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.701831524439212</v>
+        <v>-5.743203201419067</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.661793265229799</v>
       </c>
       <c r="E62" t="n">
-        <v>-9.138050420581477</v>
+        <v>-9.089504161644358</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6694852842754121</v>
+        <v>0.6115518442007742</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.80475011707802</v>
+        <v>-5.852523930147479</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.423500866345496</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.829595765630412</v>
+        <v>-8.788381196284657</v>
       </c>
       <c r="F63" t="n">
-        <v>0.631111744646313</v>
+        <v>0.567928291132143</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.795389120546186</v>
+        <v>-5.835962167052696</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.189464387261117</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.527399231437691</v>
+        <v>-8.483985155214526</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5296594899257777</v>
+        <v>0.4661356365377228</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.728421991510758</v>
+        <v>-5.766101639089245</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-3.963768816035147</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.407827229584207</v>
+        <v>-8.351307758216475</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3939970478798122</v>
+        <v>0.3373335611808218</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.751150229243994</v>
+        <v>-5.784601063004605</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-3.746438364317575</v>
       </c>
       <c r="E66" t="n">
-        <v>-8.211822363740724</v>
+        <v>-8.151349016914793</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3478466803627278</v>
+        <v>0.2841395347348888</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.740414540913779</v>
+        <v>-5.781943325527734</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-3.537351539817177</v>
       </c>
       <c r="E67" t="n">
-        <v>-8.079079505228465</v>
+        <v>-8.011143545782748</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2572348523951417</v>
+        <v>0.1984635049386334</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.694696219390472</v>
+        <v>-5.749094737697843</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-3.335021809696598</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.939999972140809</v>
+        <v>-7.888167545190415</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2010688732041369</v>
+        <v>0.1405693417725207</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.64431703805551</v>
+        <v>-5.696987372387773</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-3.143225315282056</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.87864944102448</v>
+        <v>-7.814588803219914</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1922053841802883</v>
+        <v>0.1290088383632766</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.559334900309866</v>
+        <v>-5.606650482779863</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.961961528179669</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.888115175979048</v>
+        <v>-7.825206660824555</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08725748460101217</v>
+        <v>0.02467627701756156</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.453352708806093</v>
+        <v>-5.497133369508825</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.789165983767859</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.950369075991456</v>
+        <v>-7.867717368151639</v>
       </c>
       <c r="F71" t="n">
-        <v>0.08802993046867401</v>
+        <v>0.01989758648033154</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.282498156721568</v>
+        <v>-5.329250770169372</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.624623833242409</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.972848559970699</v>
+        <v>-7.901351494152033</v>
       </c>
       <c r="F72" t="n">
-        <v>0.01017000546892908</v>
+        <v>-0.05357641706743515</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.194308404779701</v>
+        <v>-5.226567838981714</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.469659250805631</v>
       </c>
       <c r="E73" t="n">
-        <v>-8.17765145332382</v>
+        <v>-8.096361344979544</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.0290414415420405</v>
+        <v>-0.09846992351171384</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.92654462706072</v>
+        <v>-4.956617646688164</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.328899481996074</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.309189819974643</v>
+        <v>-8.234930278256371</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.07403968640905299</v>
+        <v>-0.1355211405537986</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.79479678356443</v>
+        <v>-4.822120419595112</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.205284169056428</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.641812865971534</v>
+        <v>-8.564070771697365</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.1634993917265672</v>
+        <v>-0.2450775307333624</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.546448890959728</v>
+        <v>-4.564254422824476</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-2.102088672210932</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.90346253826343</v>
+        <v>-8.832698641403901</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.1509831502098771</v>
+        <v>-0.2186048943873923</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.244540387429526</v>
+        <v>-4.251282923393014</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-2.024623159675924</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.417374701709702</v>
+        <v>-9.349530388383879</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.2269970605089386</v>
+        <v>-0.3068993847519929</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.028412652118311</v>
+        <v>-4.048247490923526</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.98146512635128</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.870617133787418</v>
+        <v>-9.80972483327055</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.17990404718725</v>
+        <v>-0.2620582475190811</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.932459164591301</v>
+        <v>-3.951940511219789</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.980432001914854</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.30822735627211</v>
+        <v>-10.23102204641445</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.2463212995033263</v>
+        <v>-0.3333589287951212</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.780667005444329</v>
+        <v>-3.805149611758357</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.025457117012534</v>
       </c>
       <c r="E80" t="n">
-        <v>-10.90797265714874</v>
+        <v>-10.84755167953418</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.301727925129511</v>
+        <v>-0.3910436151157663</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.452338234779523</v>
+        <v>-3.473416842354701</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.122588297494139</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.59434972592907</v>
+        <v>-11.54136517632861</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3200178721994024</v>
+        <v>-0.4124364379591467</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.295138954558917</v>
+        <v>-3.317068561818809</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.277133565971108</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.43244040003932</v>
+        <v>-12.37637915927105</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.3879800162508024</v>
+        <v>-0.4792202747547913</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.954725988371198</v>
+        <v>-2.977637518344219</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.494864683057798</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.34865284520616</v>
+        <v>-13.29738338727796</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3691401924615585</v>
+        <v>-0.470396062639468</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.803130213766852</v>
+        <v>-2.827678281595088</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.77705249436384</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.30617150583863</v>
+        <v>-14.26330730633482</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4215748653426715</v>
+        <v>-0.5189423215765883</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.531085253018626</v>
+        <v>-2.557976843055531</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.119163103492524</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.52561477712268</v>
+        <v>-15.48102239364376</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.4797308745656187</v>
+        <v>-0.579363299191154</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.333718787679605</v>
+        <v>-2.35749440964018</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.522076172642598</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.58670664553606</v>
+        <v>-16.54830692130128</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5753308699159024</v>
+        <v>-0.6769402322705385</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.098829782396198</v>
+        <v>-2.134637230668319</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.984226814202752</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.76720031586597</v>
+        <v>-17.73708801933</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5043967731194305</v>
+        <v>-0.6048932897325199</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.036628251595157</v>
+        <v>-2.071021731160372</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.502480477464945</v>
       </c>
       <c r="E88" t="n">
-        <v>-19.13839646938847</v>
+        <v>-19.11040512591286</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6597369463365104</v>
+        <v>-0.7609142626973694</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.007078924081382</v>
+        <v>-2.039246712163503</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-5.06726055452276</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.67589105360657</v>
+        <v>-20.66401633492912</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6410018609700003</v>
+        <v>-0.7368244254685935</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.993397467611778</v>
+        <v>-2.030029730962927</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.670740292065501</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.31402616976902</v>
+        <v>-22.3094700483801</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6853454906949266</v>
+        <v>-0.785933653427908</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.005835155311418</v>
+        <v>-2.053936275951919</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.308183801426196</v>
       </c>
       <c r="E91" t="n">
-        <v>-24.02348815181319</v>
+        <v>-24.01860472285323</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8235085625836618</v>
+        <v>-0.9177862353469312</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.04461455632861</v>
+        <v>-2.091903954192925</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.97425337926732</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.76204123077168</v>
+        <v>-25.75867650894136</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8729581904168612</v>
+        <v>-0.9719752768088353</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.112629069591377</v>
+        <v>-2.159643529096016</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.661240357629257</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.79009131016641</v>
+        <v>-27.79276213994612</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.046274095435631</v>
+        <v>-1.144675843594044</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.302794768367448</v>
+        <v>-2.341155215693706</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-8.35119861654541</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.83849992048003</v>
+        <v>-29.84228359600129</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.075077161687428</v>
+        <v>-1.167718296595482</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.366226975635611</v>
+        <v>-2.402204623844674</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.03938707760838</v>
       </c>
       <c r="E95" t="n">
-        <v>-32.0414238889317</v>
+        <v>-32.05147877751415</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.318999855931626</v>
+        <v>-1.425309355006442</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.578806696876717</v>
+        <v>-2.61910480502355</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.716994416682168</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.30136483625909</v>
+        <v>-34.31618532307592</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.44463359400083</v>
+        <v>-1.54080965067615</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.795340293576025</v>
+        <v>-2.828254342920124</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-10.37275630550909</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.51416040105342</v>
+        <v>-36.51935804528159</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.611573547535679</v>
+        <v>-1.70032626849974</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.887889782364187</v>
+        <v>-2.922937877071487</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-10.9923056704884</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.84737896738595</v>
+        <v>-38.8613877314266</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.878708894718258</v>
+        <v>-1.97225339852239</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.143386072320471</v>
+        <v>-3.17341981503939</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-11.55250158699171</v>
       </c>
       <c r="E99" t="n">
-        <v>-41.15068162172513</v>
+        <v>-41.16720410791139</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.891356059263365</v>
+        <v>-1.98363060969185</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.374674694322403</v>
+        <v>-3.380278199938662</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-12.04567408739581</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.48486901846795</v>
+        <v>-43.50564650307776</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.223900551443207</v>
+        <v>-2.301734291837269</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.453568911246645</v>
+        <v>-3.475472333900853</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-12.44982729294993</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.81611064707138</v>
+        <v>-45.82627027407656</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.267144427729428</v>
+        <v>-2.347923936262878</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.709628170225123</v>
+        <v>-3.722550273129907</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-12.76706391500848</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.34706226322249</v>
+        <v>-48.34651238650314</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.527655069674094</v>
+        <v>-2.592736907100314</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.753919430738682</v>
+        <v>-3.772589054590984</v>
       </c>
     </row>
   </sheetData>
